--- a/doc/BOM.xlsx
+++ b/doc/BOM.xlsx
@@ -433,10 +433,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SC4532</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Desp</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -473,6 +469,10 @@
   </si>
   <si>
     <t>MOLEX-47346-0001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4532</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +480,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,7 +642,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1214,33 +1222,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1248,6 +1229,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1573,1084 +1581,1084 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.75" customWidth="1"/>
-    <col min="6" max="6" width="24.75" customWidth="1"/>
-    <col min="7" max="7" width="34.25" customWidth="1"/>
+    <col min="5" max="5" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="7">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="7">
+        <v>6</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="7">
+        <v>7</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="7">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="7">
+        <v>9</v>
+      </c>
+      <c r="D12" s="8">
+        <v>9</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="7">
+        <v>10</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="7">
+        <v>11</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="7">
+        <v>12</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="7">
+        <v>13</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="7">
+        <v>14</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="7">
+        <v>15</v>
+      </c>
+      <c r="D18" s="8">
+        <v>2</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="7">
+        <v>16</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="7">
+        <v>17</v>
+      </c>
+      <c r="D20" s="8">
+        <v>6</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="7">
+        <v>18</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="7">
+        <v>19</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="7">
+        <v>20</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="7">
+        <v>21</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="7">
+        <v>22</v>
+      </c>
+      <c r="D25" s="8">
+        <v>2</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="7">
+        <v>23</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="7">
+        <v>24</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="7">
+        <v>25</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="7">
+        <v>26</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="7">
+        <v>27</v>
+      </c>
+      <c r="D30" s="8">
+        <v>6</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="7">
+        <v>28</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C32" s="7">
+        <v>29</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33" s="7">
+        <v>30</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C34" s="7">
+        <v>31</v>
+      </c>
+      <c r="D34" s="8">
+        <v>4</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C35" s="7">
+        <v>32</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="7">
+        <v>33</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="7">
+        <v>34</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="7">
+        <v>35</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="7">
+        <v>36</v>
+      </c>
+      <c r="D39" s="8">
+        <v>7</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="7">
+        <v>37</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="7">
+        <v>38</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="7">
+        <v>39</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="7">
+        <v>40</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="7">
+        <v>41</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="7">
+        <v>42</v>
+      </c>
+      <c r="D45" s="8">
+        <v>2</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C46" s="7">
+        <v>43</v>
+      </c>
+      <c r="D46" s="8">
+        <v>1</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C47" s="7">
+        <v>44</v>
+      </c>
+      <c r="D47" s="8">
+        <v>1</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C48" s="7">
+        <v>45</v>
+      </c>
+      <c r="D48" s="8">
+        <v>14</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C49" s="7">
+        <v>46</v>
+      </c>
+      <c r="D49" s="8">
+        <v>3</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C50" s="7">
+        <v>47</v>
+      </c>
+      <c r="D50" s="8">
+        <v>8</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C51" s="7">
+        <v>48</v>
+      </c>
+      <c r="D51" s="8">
+        <v>5</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C52" s="7">
+        <v>49</v>
+      </c>
+      <c r="D52" s="8">
+        <v>1</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G52" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="2">
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C53" s="7">
+        <v>50</v>
+      </c>
+      <c r="D53" s="8">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E53" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C54" s="7">
+        <v>51</v>
+      </c>
+      <c r="D54" s="8">
+        <v>1</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C55" s="7">
+        <v>52</v>
+      </c>
+      <c r="D55" s="8">
+        <v>1</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C56" s="7">
+        <v>53</v>
+      </c>
+      <c r="D56" s="8">
+        <v>1</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H56" s="9"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C57" s="7">
+        <v>54</v>
+      </c>
+      <c r="D57" s="8">
+        <v>1</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H57" s="9"/>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C58" s="7">
+        <v>55</v>
+      </c>
+      <c r="D58" s="8">
+        <v>2</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H58" s="9"/>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C59" s="7">
+        <v>56</v>
+      </c>
+      <c r="D59" s="8">
+        <v>1</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C60" s="7">
+        <v>57</v>
+      </c>
+      <c r="D60" s="8">
+        <v>2</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H60" s="9"/>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C61" s="7">
+        <v>58</v>
+      </c>
+      <c r="D61" s="8">
+        <v>1</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C62" s="7">
+        <v>59</v>
+      </c>
+      <c r="D62" s="8">
+        <v>1</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G62" s="8"/>
+      <c r="H62" s="9"/>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C63" s="7">
+        <v>60</v>
+      </c>
+      <c r="D63" s="8">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="2">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="2">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="2">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="2">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="2">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="2">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="2">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="2">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="2">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="2">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="2">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="2">
-        <v>16</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="2">
-        <v>17</v>
-      </c>
-      <c r="D20" s="1">
-        <v>6</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="2">
-        <v>18</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="2">
-        <v>19</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="2">
-        <v>20</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="2">
-        <v>21</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="2">
-        <v>22</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="2">
-        <v>23</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="2">
-        <v>24</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="2">
-        <v>25</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C29" s="2">
-        <v>26</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C30" s="2">
-        <v>27</v>
-      </c>
-      <c r="D30" s="1">
-        <v>6</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C31" s="2">
-        <v>28</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C32" s="2">
-        <v>29</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="E63" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H63" s="9"/>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C64" s="7">
         <v>61</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C33" s="2">
-        <v>30</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="D64" s="8">
+        <v>1</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H64" s="9"/>
+    </row>
+    <row r="65" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C65" s="10">
         <v>62</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C34" s="2">
-        <v>31</v>
-      </c>
-      <c r="D34" s="1">
-        <v>4</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C35" s="2">
-        <v>32</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C36" s="2">
-        <v>33</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C37" s="2">
-        <v>34</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C38" s="2">
-        <v>35</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C39" s="2">
-        <v>36</v>
-      </c>
-      <c r="D39" s="1">
-        <v>7</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C40" s="2">
-        <v>37</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C41" s="2">
-        <v>38</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C42" s="2">
-        <v>39</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C43" s="2">
-        <v>40</v>
-      </c>
-      <c r="D43" s="1">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C44" s="2">
-        <v>41</v>
-      </c>
-      <c r="D44" s="1">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C45" s="2">
-        <v>42</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C46" s="2">
-        <v>43</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C47" s="2">
-        <v>44</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C48" s="2">
-        <v>45</v>
-      </c>
-      <c r="D48" s="1">
-        <v>14</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C49" s="2">
-        <v>46</v>
-      </c>
-      <c r="D49" s="1">
-        <v>3</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C50" s="2">
-        <v>47</v>
-      </c>
-      <c r="D50" s="1">
-        <v>8</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C51" s="2">
-        <v>48</v>
-      </c>
-      <c r="D51" s="1">
-        <v>5</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C52" s="2">
-        <v>49</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C53" s="2">
-        <v>50</v>
-      </c>
-      <c r="D53" s="1">
-        <v>2</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C54" s="2">
-        <v>51</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C55" s="2">
-        <v>52</v>
-      </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C56" s="2">
-        <v>53</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C57" s="2">
-        <v>54</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C58" s="2">
-        <v>55</v>
-      </c>
-      <c r="D58" s="1">
-        <v>2</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C59" s="2">
-        <v>56</v>
-      </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C60" s="2">
-        <v>57</v>
-      </c>
-      <c r="D60" s="1">
-        <v>2</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C61" s="2">
-        <v>58</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C62" s="2">
-        <v>59</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G62" s="1"/>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C63" s="2">
-        <v>60</v>
-      </c>
-      <c r="D63" s="1">
-        <v>3</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C64" s="2">
-        <v>61</v>
-      </c>
-      <c r="D64" s="1">
-        <v>1</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C65" s="4">
-        <v>62</v>
-      </c>
-      <c r="D65" s="5">
-        <v>1</v>
-      </c>
-      <c r="E65" s="5" t="s">
+      <c r="D65" s="11">
+        <v>1</v>
+      </c>
+      <c r="E65" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="6"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/doc/BOM.xlsx
+++ b/doc/BOM.xlsx
@@ -225,9 +225,6 @@
     <t>R-0603(1608),100K</t>
   </si>
   <si>
-    <t>R1 R7 R16-17 R27 R35 R37-43 R48 R53-54 R58</t>
-  </si>
-  <si>
     <t>R-0603(1608),10K</t>
   </si>
   <si>
@@ -431,6 +428,10 @@
   </si>
   <si>
     <t>3x5 size</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1 R7 R16-17 R27 R35 R37-43 R48 R53-54 R58 R60-61</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1568,7 +1569,7 @@
   <dimension ref="B1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1595,7 +1596,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
@@ -1642,7 +1643,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -1659,7 +1660,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -1676,7 +1677,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -1693,7 +1694,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -1845,7 +1846,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
@@ -1862,7 +1863,7 @@
         <v>37</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -1879,7 +1880,7 @@
         <v>39</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
@@ -1941,7 +1942,7 @@
         <v>47</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
@@ -2003,7 +2004,7 @@
         <v>55</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
@@ -2035,7 +2036,7 @@
         <v>59</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
@@ -2106,10 +2107,10 @@
         <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F35" s="3"/>
     </row>
@@ -2121,10 +2122,10 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F36" s="3"/>
     </row>
@@ -2136,10 +2137,10 @@
         <v>6</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F37" s="3"/>
     </row>
@@ -2151,10 +2152,10 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F38" s="3"/>
     </row>
@@ -2166,10 +2167,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F39" s="3"/>
     </row>
@@ -2181,10 +2182,10 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F40" s="3"/>
     </row>
@@ -2196,13 +2197,13 @@
         <v>2</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
@@ -2213,10 +2214,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F42" s="3"/>
     </row>
@@ -2228,10 +2229,10 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F43" s="3"/>
     </row>
@@ -2243,10 +2244,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F44" s="3"/>
     </row>
@@ -2258,10 +2259,10 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F45" s="3"/>
     </row>
@@ -2273,10 +2274,10 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F46" s="3"/>
     </row>
@@ -2288,10 +2289,10 @@
         <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F47" s="3"/>
     </row>
@@ -2303,10 +2304,10 @@
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F48" s="3"/>
     </row>
@@ -2318,10 +2319,10 @@
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F49" s="3"/>
     </row>
@@ -2333,13 +2334,13 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F50" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
@@ -2350,10 +2351,10 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F51" s="3"/>
     </row>
@@ -2365,13 +2366,13 @@
         <v>2</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F52" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
@@ -2382,13 +2383,13 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F53" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
@@ -2399,10 +2400,10 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F54" s="3"/>
     </row>
@@ -2414,13 +2415,13 @@
         <v>3</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F55" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
@@ -2431,13 +2432,13 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F56" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2448,13 +2449,13 @@
         <v>1</v>
       </c>
       <c r="D57" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="F57" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
